--- a/Data/NE Test/DPV Analysis/Analysis Files/APBA 20 Seg 100 uM DA SER - 10 min.xlsx
+++ b/Data/NE Test/DPV Analysis/Analysis Files/APBA 20 Seg 100 uM DA SER - 10 min.xlsx
@@ -480,10 +480,10 @@
         <v>0.004</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>58.63166666666673</v>
+        <v>58.63166666666671</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>58.63166666666673</v>
+        <v>58.63166666666671</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0.064</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.6433497536945936</v>
+        <v>0.6433497536945865</v>
       </c>
     </row>
     <row r="3">
@@ -501,10 +501,10 @@
         <v>0.008</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>58.06595238095244</v>
+        <v>58.06595238095242</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>58.06595238095244</v>
+        <v>58.06595238095242</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0</v>
@@ -514,7 +514,7 @@
         <v>0.196</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.2314285714285802</v>
+        <v>0.2319047619047652</v>
       </c>
     </row>
     <row r="4">
@@ -522,20 +522,20 @@
         <v>0.012</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>57.52023809523815</v>
+        <v>57.52023809523813</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>57.52023809523812</v>
+        <v>57.52023809523813</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="n">
         <v>0.36</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6.632030075187991</v>
+        <v>6.632030075187977</v>
       </c>
     </row>
     <row r="5">
@@ -543,13 +543,13 @@
         <v>0.016</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>56.99619047619052</v>
+        <v>56.99619047619051</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>56.98556650246308</v>
+        <v>56.98556650246309</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.01062397372744073</v>
+        <v>0.01062397372741941</v>
       </c>
       <c r="E5" s="2" t="n"/>
       <c r="F5" s="2" t="n"/>
@@ -563,10 +563,10 @@
         <v>56.49857142857147</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>56.45089490968804</v>
+        <v>56.45089490968805</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.04767651888342783</v>
+        <v>0.04767651888342073</v>
       </c>
       <c r="E6" s="2" t="n"/>
       <c r="F6" s="2" t="n"/>
@@ -583,7 +583,7 @@
         <v>55.916223316913</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1085385878489475</v>
+        <v>0.1085385878489404</v>
       </c>
       <c r="E7" s="2" t="n"/>
       <c r="F7" s="2" t="n"/>
@@ -600,7 +600,7 @@
         <v>55.38155172413796</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1841625615763647</v>
+        <v>0.1841625615763576</v>
       </c>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
@@ -617,7 +617,7 @@
         <v>54.84688013136292</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.2593103448275969</v>
+        <v>0.2593103448275897</v>
       </c>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
@@ -631,10 +631,10 @@
         <v>54.65095238095242</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>54.31220853858787</v>
+        <v>54.31220853858788</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.3387438423645435</v>
+        <v>0.3387438423645364</v>
       </c>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
@@ -648,10 +648,10 @@
         <v>54.18809523809527</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>53.77753694581283</v>
+        <v>53.77753694581284</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.4105582922824382</v>
+        <v>0.4105582922824311</v>
       </c>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
@@ -665,7 +665,7 @@
         <v>53.72047619047623</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>53.24286535303779</v>
+        <v>53.2428653530378</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0.4776108374384336</v>
@@ -682,10 +682,10 @@
         <v>53.23904761904765</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>52.70819376026275</v>
+        <v>52.70819376026276</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.5308538587849014</v>
+        <v>0.5308538587848943</v>
       </c>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
@@ -699,10 +699,10 @@
         <v>52.7519047619048</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>52.17352216748771</v>
+        <v>52.17352216748772</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.5783825944170857</v>
+        <v>0.5783825944170786</v>
       </c>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
@@ -713,13 +713,13 @@
         <v>0.056</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>52.24904761904765</v>
+        <v>52.24904761904766</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>51.63885057471266</v>
+        <v>51.63885057471268</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.6101970443349884</v>
+        <v>0.6101970443349813</v>
       </c>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
@@ -733,10 +733,10 @@
         <v>51.73761904761908</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>51.10417898193762</v>
+        <v>51.10417898193764</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.6334400656814552</v>
+        <v>0.6334400656814481</v>
       </c>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
@@ -747,13 +747,13 @@
         <v>0.064</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>51.21285714285717</v>
+        <v>51.21285714285718</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>50.56950738916258</v>
+        <v>50.5695073891626</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.6433497536945936</v>
+        <v>0.6433497536945865</v>
       </c>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
@@ -764,10 +764,10 @@
         <v>0.068</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>50.67380952380956</v>
+        <v>50.67380952380957</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>50.03483579638754</v>
+        <v>50.03483579638755</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0.6389737274220195</v>
@@ -784,10 +784,10 @@
         <v>50.11523809523813</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>49.5001642036125</v>
+        <v>49.50016420361251</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.6150738916256273</v>
+        <v>0.6150738916256202</v>
       </c>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
@@ -801,10 +801,10 @@
         <v>49.55190476190479</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>48.96549261083746</v>
+        <v>48.96549261083747</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.5864121510673357</v>
+        <v>0.5864121510673286</v>
       </c>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
@@ -815,7 +815,7 @@
         <v>0.08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>48.97285714285717</v>
+        <v>48.97285714285718</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>48.43082101806242</v>
@@ -838,7 +838,7 @@
         <v>47.89614942528738</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.4867077175698</v>
+        <v>0.4867077175697929</v>
       </c>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
@@ -855,7 +855,7 @@
         <v>47.36147783251234</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.4223316912972166</v>
+        <v>0.4223316912972095</v>
       </c>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
@@ -869,10 +869,10 @@
         <v>47.18285714285717</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>46.82680623973729</v>
+        <v>46.8268062397373</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.3560509031198791</v>
+        <v>0.356050903119872</v>
       </c>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
@@ -886,10 +886,10 @@
         <v>46.56476190476194</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>46.29213464696225</v>
+        <v>46.29213464696226</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.2726272577996838</v>
+        <v>0.2726272577996767</v>
       </c>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
@@ -985,13 +985,13 @@
         <v>0.12</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>43.09476190476194</v>
+        <v>43.09476190476193</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>43.08410509031201</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.01065681444993061</v>
+        <v>0.0106568144499235</v>
       </c>
       <c r="E31" s="2" t="n"/>
       <c r="F31" s="2" t="n"/>
@@ -1002,13 +1002,13 @@
         <v>0.124</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>42.55714285714288</v>
+        <v>42.55714285714289</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>42.54943349753697</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.007709359605911459</v>
+        <v>0.007709359605918564</v>
       </c>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -1025,7 +1025,7 @@
         <v>42.01476190476193</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2" t="n"/>
       <c r="F33" s="2" t="n"/>
@@ -1070,10 +1070,10 @@
         <v>0.14</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>40.73571428571432</v>
+        <v>40.73571428571431</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>40.73571428571432</v>
+        <v>40.73571428571431</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0</v>
@@ -1087,10 +1087,10 @@
         <v>0.144</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>40.43904761904764</v>
+        <v>40.43904761904765</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>40.43904761904764</v>
+        <v>40.43904761904765</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
@@ -1158,10 +1158,10 @@
         <v>39.36476190476193</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>39.36476190476192</v>
+        <v>39.36476190476193</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>7.105427357601002e-15</v>
+        <v>0</v>
       </c>
       <c r="E41" s="2" t="n"/>
       <c r="F41" s="2" t="n"/>
@@ -1175,10 +1175,10 @@
         <v>39.16095238095241</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>39.1510052910053</v>
+        <v>39.1509523809524</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.009947089947104359</v>
+        <v>0.01000000000000512</v>
       </c>
       <c r="E42" s="2" t="n"/>
       <c r="F42" s="2" t="n"/>
@@ -1192,10 +1192,10 @@
         <v>38.97142857142859</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>38.9372486772487</v>
+        <v>38.93714285714288</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.03417989417989276</v>
+        <v>0.03428571428570848</v>
       </c>
       <c r="E43" s="2" t="n"/>
       <c r="F43" s="2" t="n"/>
@@ -1209,10 +1209,10 @@
         <v>38.7909523809524</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>38.72349206349208</v>
+        <v>38.72333333333336</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.06746031746032344</v>
+        <v>0.06761904761904702</v>
       </c>
       <c r="E44" s="2" t="n"/>
       <c r="F44" s="2" t="n"/>
@@ -1223,13 +1223,13 @@
         <v>0.176</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>38.6157142857143</v>
+        <v>38.61571428571431</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>38.50973544973547</v>
+        <v>38.50952380952383</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>0.1059788359788385</v>
+        <v>0.1061904761904771</v>
       </c>
       <c r="E45" s="2" t="n"/>
       <c r="F45" s="2" t="n"/>
@@ -1243,10 +1243,10 @@
         <v>38.4414285714286</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>38.29597883597885</v>
+        <v>38.29571428571431</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>0.1454497354497448</v>
+        <v>0.1457142857142841</v>
       </c>
       <c r="E46" s="2" t="n"/>
       <c r="F46" s="2" t="n"/>
@@ -1257,13 +1257,13 @@
         <v>0.184</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>38.26285714285716</v>
+        <v>38.26285714285717</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>38.08222222222224</v>
+        <v>38.08190476190478</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>0.1806349206349225</v>
+        <v>0.180952380952391</v>
       </c>
       <c r="E47" s="2" t="n"/>
       <c r="F47" s="2" t="n"/>
@@ -1277,10 +1277,10 @@
         <v>38.07571428571431</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>37.86846560846563</v>
+        <v>37.86809523809526</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>0.2072486772486855</v>
+        <v>0.2076190476190547</v>
       </c>
       <c r="E48" s="2" t="n"/>
       <c r="F48" s="2" t="n"/>
@@ -1291,13 +1291,13 @@
         <v>0.192</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>37.87857142857145</v>
+        <v>37.87857142857146</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>37.65470899470901</v>
+        <v>37.65428571428573</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>0.2238624338624433</v>
+        <v>0.2242857142857275</v>
       </c>
       <c r="E49" s="2" t="n"/>
       <c r="F49" s="2" t="n"/>
@@ -1311,10 +1311,10 @@
         <v>37.67238095238098</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>37.4409523809524</v>
+        <v>37.44047619047621</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>0.2314285714285802</v>
+        <v>0.2319047619047652</v>
       </c>
       <c r="E50" s="2" t="n"/>
       <c r="F50" s="2" t="n"/>
@@ -1328,10 +1328,10 @@
         <v>37.45285714285717</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>37.22719576719578</v>
+        <v>37.22666666666669</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>0.2256613756613888</v>
+        <v>0.2261904761904816</v>
       </c>
       <c r="E51" s="2" t="n"/>
       <c r="F51" s="2" t="n"/>
@@ -1345,10 +1345,10 @@
         <v>37.22238095238098</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>37.01343915343917</v>
+        <v>37.01285714285716</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>0.2089417989418152</v>
+        <v>0.2095238095238159</v>
       </c>
       <c r="E52" s="2" t="n"/>
       <c r="F52" s="2" t="n"/>
@@ -1362,10 +1362,10 @@
         <v>36.9814285714286</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>36.79968253968256</v>
+        <v>36.79904761904764</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>0.1817460317460444</v>
+        <v>0.1823809523809601</v>
       </c>
       <c r="E53" s="2" t="n"/>
       <c r="F53" s="2" t="n"/>
@@ -1379,10 +1379,10 @@
         <v>36.73190476190479</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>36.58592592592594</v>
+        <v>36.58523809523811</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>0.1459788359788519</v>
+        <v>0.1466666666666825</v>
       </c>
       <c r="E54" s="2" t="n"/>
       <c r="F54" s="2" t="n"/>
@@ -1396,10 +1396,10 @@
         <v>36.48047619047622</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>36.37216931216933</v>
+        <v>36.37142857142859</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>0.108306878306891</v>
+        <v>0.1090476190476366</v>
       </c>
       <c r="E55" s="2" t="n"/>
       <c r="F55" s="2" t="n"/>
@@ -1413,10 +1413,10 @@
         <v>36.23047619047621</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>36.15841269841271</v>
+        <v>36.15761904761906</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>0.07206349206349927</v>
+        <v>0.07285714285714562</v>
       </c>
       <c r="E56" s="2" t="n"/>
       <c r="F56" s="2" t="n"/>
@@ -1430,10 +1430,10 @@
         <v>35.98523809523812</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>35.9446560846561</v>
+        <v>35.94380952380954</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>0.04058201058202116</v>
+        <v>0.04142857142857537</v>
       </c>
       <c r="E57" s="2" t="n"/>
       <c r="F57" s="2" t="n"/>
@@ -1447,10 +1447,10 @@
         <v>35.74523809523811</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>35.73089947089949</v>
+        <v>35.73000000000002</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>0.01433862433862743</v>
+        <v>0.01523809523809661</v>
       </c>
       <c r="E58" s="2" t="n"/>
       <c r="F58" s="2" t="n"/>
@@ -1461,13 +1461,13 @@
         <v>0.232</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>35.51714285714287</v>
+        <v>35.51714285714288</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>35.51714285714287</v>
+        <v>35.51619047619049</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>0</v>
+        <v>0.0009523809523912519</v>
       </c>
       <c r="E59" s="2" t="n"/>
       <c r="F59" s="2" t="n"/>
@@ -1563,10 +1563,10 @@
         <v>0.256</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>34.55714285714288</v>
+        <v>34.55714285714289</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>34.55714285714288</v>
+        <v>34.55714285714289</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>34.45428571428574</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>34.45428571428572</v>
+        <v>34.45428571428573</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="E67" s="2" t="n"/>
       <c r="F67" s="2" t="n"/>
@@ -1617,10 +1617,10 @@
         <v>34.45523809523812</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>34.42275271512114</v>
+        <v>34.42275271512116</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.03248538011697377</v>
+        <v>0.03248538011695956</v>
       </c>
       <c r="E68" s="2" t="n"/>
       <c r="F68" s="2" t="n"/>
@@ -1634,10 +1634,10 @@
         <v>34.48714285714289</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>34.39121971595656</v>
+        <v>34.39121971595658</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.09592314118632572</v>
+        <v>0.09592314118630441</v>
       </c>
       <c r="E69" s="2" t="n"/>
       <c r="F69" s="2" t="n"/>
@@ -1651,10 +1651,10 @@
         <v>34.55857142857145</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>34.35968671679198</v>
+        <v>34.359686716792</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.1988847117794705</v>
+        <v>0.1988847117794563</v>
       </c>
       <c r="E70" s="2" t="n"/>
       <c r="F70" s="2" t="n"/>
@@ -1668,10 +1668,10 @@
         <v>34.64285714285717</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>34.3281537176274</v>
+        <v>34.32815371762742</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.3147034252297658</v>
+        <v>0.3147034252297445</v>
       </c>
       <c r="E71" s="2" t="n"/>
       <c r="F71" s="2" t="n"/>
@@ -1685,10 +1685,10 @@
         <v>34.79238095238097</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>34.29662071846283</v>
+        <v>34.29662071846285</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.4957602339181477</v>
+        <v>0.4957602339181264</v>
       </c>
       <c r="E72" s="2" t="n"/>
       <c r="F72" s="2" t="n"/>
@@ -1702,10 +1702,10 @@
         <v>34.99952380952383</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>34.26508771929825</v>
+        <v>34.26508771929826</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.7344360902255787</v>
+        <v>0.7344360902255644</v>
       </c>
       <c r="E73" s="2" t="n"/>
       <c r="F73" s="2" t="n"/>
@@ -1719,10 +1719,10 @@
         <v>35.24285714285717</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>34.23355472013367</v>
+        <v>34.23355472013369</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>1.009302422723501</v>
+        <v>1.009302422723479</v>
       </c>
       <c r="E74" s="2" t="n"/>
       <c r="F74" s="2" t="n"/>
@@ -1736,10 +1736,10 @@
         <v>35.52714285714288</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>34.20202172096909</v>
+        <v>34.20202172096911</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>1.325121136173784</v>
+        <v>1.32512113617377</v>
       </c>
       <c r="E75" s="2" t="n"/>
       <c r="F75" s="2" t="n"/>
@@ -1753,10 +1753,10 @@
         <v>35.84238095238098</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>34.17048872180452</v>
+        <v>34.17048872180453</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>1.671892230576461</v>
+        <v>1.671892230576447</v>
       </c>
       <c r="E76" s="2" t="n"/>
       <c r="F76" s="2" t="n"/>
@@ -1767,13 +1767,13 @@
         <v>0.304</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>36.14904761904764</v>
+        <v>36.14904761904765</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>34.13895572263993</v>
+        <v>34.13895572263996</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>2.010091896407708</v>
+        <v>2.010091896407694</v>
       </c>
       <c r="E77" s="2" t="n"/>
       <c r="F77" s="2" t="n"/>
@@ -1787,10 +1787,10 @@
         <v>36.49666666666669</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>34.10742272347536</v>
+        <v>34.10742272347537</v>
       </c>
       <c r="D78" s="2" t="n">
-        <v>2.389243943191332</v>
+        <v>2.389243943191317</v>
       </c>
       <c r="E78" s="2" t="n"/>
       <c r="F78" s="2" t="n"/>
@@ -1804,10 +1804,10 @@
         <v>36.88047619047622</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>34.07588972431078</v>
+        <v>34.0758897243108</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>2.804586466165432</v>
+        <v>2.804586466165418</v>
       </c>
       <c r="E79" s="2" t="n"/>
       <c r="F79" s="2" t="n"/>
@@ -1821,10 +1821,10 @@
         <v>37.27809523809526</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>34.0443567251462</v>
+        <v>34.04435672514622</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>3.23373851294906</v>
+        <v>3.233738512949046</v>
       </c>
       <c r="E80" s="2" t="n"/>
       <c r="F80" s="2" t="n"/>
@@ -1838,10 +1838,10 @@
         <v>37.7009523809524</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>34.01282372598163</v>
+        <v>34.01282372598164</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>3.688128654970775</v>
+        <v>3.688128654970761</v>
       </c>
       <c r="E81" s="2" t="n"/>
       <c r="F81" s="2" t="n"/>
@@ -1855,10 +1855,10 @@
         <v>38.12857142857146</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>33.98129072681705</v>
+        <v>33.98129072681706</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>4.147280701754411</v>
+        <v>4.147280701754397</v>
       </c>
       <c r="E82" s="2" t="n"/>
       <c r="F82" s="2" t="n"/>
@@ -1872,10 +1872,10 @@
         <v>38.54428571428573</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>33.94975772765247</v>
+        <v>33.94975772765248</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>4.594527986633267</v>
+        <v>4.594527986633253</v>
       </c>
       <c r="E83" s="2" t="n"/>
       <c r="F83" s="2" t="n"/>
@@ -1889,10 +1889,10 @@
         <v>38.93714285714289</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>33.91822472848789</v>
+        <v>33.91822472848791</v>
       </c>
       <c r="D84" s="2" t="n">
-        <v>5.018918128654995</v>
+        <v>5.018918128654981</v>
       </c>
       <c r="E84" s="2" t="n"/>
       <c r="F84" s="2" t="n"/>
@@ -1906,10 +1906,10 @@
         <v>39.30285714285716</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>33.88669172932331</v>
+        <v>33.88669172932333</v>
       </c>
       <c r="D85" s="2" t="n">
-        <v>5.416165413533854</v>
+        <v>5.416165413533832</v>
       </c>
       <c r="E85" s="2" t="n"/>
       <c r="F85" s="2" t="n"/>
@@ -1923,10 +1923,10 @@
         <v>39.62571428571431</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>33.85515873015873</v>
+        <v>33.85515873015875</v>
       </c>
       <c r="D86" s="2" t="n">
-        <v>5.770555555555575</v>
+        <v>5.770555555555561</v>
       </c>
       <c r="E86" s="2" t="n"/>
       <c r="F86" s="2" t="n"/>
@@ -1940,10 +1940,10 @@
         <v>39.89857142857145</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>33.82362573099416</v>
+        <v>33.82362573099417</v>
       </c>
       <c r="D87" s="2" t="n">
-        <v>6.074945697577292</v>
+        <v>6.074945697577277</v>
       </c>
       <c r="E87" s="2" t="n"/>
       <c r="F87" s="2" t="n"/>
@@ -1957,10 +1957,10 @@
         <v>40.11761904761907</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>33.79209273182958</v>
+        <v>33.79209273182959</v>
       </c>
       <c r="D88" s="2" t="n">
-        <v>6.325526315789496</v>
+        <v>6.325526315789482</v>
       </c>
       <c r="E88" s="2" t="n"/>
       <c r="F88" s="2" t="n"/>
@@ -1974,10 +1974,10 @@
         <v>40.26761904761908</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>33.760559732665</v>
+        <v>33.76055973266502</v>
       </c>
       <c r="D89" s="2" t="n">
-        <v>6.507059314954077</v>
+        <v>6.507059314954063</v>
       </c>
       <c r="E89" s="2" t="n"/>
       <c r="F89" s="2" t="n"/>
@@ -1991,10 +1991,10 @@
         <v>40.33666666666669</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>33.72902673350043</v>
+        <v>33.72902673350044</v>
       </c>
       <c r="D90" s="2" t="n">
-        <v>6.607639933166261</v>
+        <v>6.607639933166247</v>
       </c>
       <c r="E90" s="2" t="n"/>
       <c r="F90" s="2" t="n"/>
@@ -2008,10 +2008,10 @@
         <v>40.32952380952383</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>33.69749373433584</v>
+        <v>33.69749373433586</v>
       </c>
       <c r="D91" s="2" t="n">
-        <v>6.632030075187991</v>
+        <v>6.632030075187977</v>
       </c>
       <c r="E91" s="2" t="n"/>
       <c r="F91" s="2" t="n"/>
@@ -2025,10 +2025,10 @@
         <v>40.24761904761907</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>33.66596073517127</v>
+        <v>33.66596073517128</v>
       </c>
       <c r="D92" s="2" t="n">
-        <v>6.5816583124478</v>
+        <v>6.581658312447786</v>
       </c>
       <c r="E92" s="2" t="n"/>
       <c r="F92" s="2" t="n"/>
@@ -2042,10 +2042,10 @@
         <v>40.08857142857146</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>33.63442773600669</v>
+        <v>33.6344277360067</v>
       </c>
       <c r="D93" s="2" t="n">
-        <v>6.454143692564763</v>
+        <v>6.454143692564756</v>
       </c>
       <c r="E93" s="2" t="n"/>
       <c r="F93" s="2" t="n"/>
@@ -2059,10 +2059,10 @@
         <v>39.86761904761907</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>33.60289473684211</v>
+        <v>33.60289473684212</v>
       </c>
       <c r="D94" s="2" t="n">
-        <v>6.264724310776963</v>
+        <v>6.264724310776948</v>
       </c>
       <c r="E94" s="2" t="n"/>
       <c r="F94" s="2" t="n"/>
@@ -2076,10 +2076,10 @@
         <v>39.58571428571431</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>33.57136173767753</v>
+        <v>33.57136173767755</v>
       </c>
       <c r="D95" s="2" t="n">
-        <v>6.014352548036776</v>
+        <v>6.014352548036761</v>
       </c>
       <c r="E95" s="2" t="n"/>
       <c r="F95" s="2" t="n"/>
@@ -2093,10 +2093,10 @@
         <v>39.24238095238098</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>33.53982873851295</v>
+        <v>33.53982873851297</v>
       </c>
       <c r="D96" s="2" t="n">
-        <v>5.702552213868024</v>
+        <v>5.70255221386801</v>
       </c>
       <c r="E96" s="2" t="n"/>
       <c r="F96" s="2" t="n"/>
@@ -2110,10 +2110,10 @@
         <v>38.86571428571431</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>33.50829573934838</v>
+        <v>33.50829573934839</v>
       </c>
       <c r="D97" s="2" t="n">
-        <v>5.357418546365935</v>
+        <v>5.357418546365921</v>
       </c>
       <c r="E97" s="2" t="n"/>
       <c r="F97" s="2" t="n"/>
@@ -2127,10 +2127,10 @@
         <v>38.47047619047622</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>33.4767627401838</v>
+        <v>33.47676274018382</v>
       </c>
       <c r="D98" s="2" t="n">
-        <v>4.993713450292418</v>
+        <v>4.993713450292404</v>
       </c>
       <c r="E98" s="2" t="n"/>
       <c r="F98" s="2" t="n"/>
@@ -2144,10 +2144,10 @@
         <v>38.05857142857145</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>33.44522974101922</v>
+        <v>33.44522974101923</v>
       </c>
       <c r="D99" s="2" t="n">
-        <v>4.613341687552236</v>
+        <v>4.613341687552214</v>
       </c>
       <c r="E99" s="2" t="n"/>
       <c r="F99" s="2" t="n"/>
@@ -2161,10 +2161,10 @@
         <v>37.6461904761905</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>33.41369674185464</v>
+        <v>33.41369674185466</v>
       </c>
       <c r="D100" s="2" t="n">
-        <v>4.232493734335854</v>
+        <v>4.23249373433584</v>
       </c>
       <c r="E100" s="2" t="n"/>
       <c r="F100" s="2" t="n"/>
@@ -2178,10 +2178,10 @@
         <v>37.24047619047622</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>33.38216374269007</v>
+        <v>33.38216374269008</v>
       </c>
       <c r="D101" s="2" t="n">
-        <v>3.858312447786147</v>
+        <v>3.85831244778614</v>
       </c>
       <c r="E101" s="2" t="n"/>
       <c r="F101" s="2" t="n"/>
@@ -2195,10 +2195,10 @@
         <v>36.84523809523812</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>33.35063074352549</v>
+        <v>33.3506307435255</v>
       </c>
       <c r="D102" s="2" t="n">
-        <v>3.494607351712631</v>
+        <v>3.494607351712617</v>
       </c>
       <c r="E102" s="2" t="n"/>
       <c r="F102" s="2" t="n"/>
@@ -2212,10 +2212,10 @@
         <v>36.47238095238097</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>33.31909774436091</v>
+        <v>33.31909774436092</v>
       </c>
       <c r="D103" s="2" t="n">
-        <v>3.153283208020063</v>
+        <v>3.153283208020049</v>
       </c>
       <c r="E103" s="2" t="n"/>
       <c r="F103" s="2" t="n"/>
@@ -2229,10 +2229,10 @@
         <v>36.11809523809526</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>33.28756474519633</v>
+        <v>33.28756474519634</v>
       </c>
       <c r="D104" s="2" t="n">
-        <v>2.830530492898923</v>
+        <v>2.830530492898916</v>
       </c>
       <c r="E104" s="2" t="n"/>
       <c r="F104" s="2" t="n"/>
@@ -2246,10 +2246,10 @@
         <v>35.78142857142859</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>33.25603174603175</v>
+        <v>33.25603174603177</v>
       </c>
       <c r="D105" s="2" t="n">
-        <v>2.52539682539684</v>
+        <v>2.525396825396825</v>
       </c>
       <c r="E105" s="2" t="n"/>
       <c r="F105" s="2" t="n"/>
@@ -2266,7 +2266,7 @@
         <v>33.22449874686718</v>
       </c>
       <c r="D106" s="2" t="n">
-        <v>2.239310776942368</v>
+        <v>2.239310776942361</v>
       </c>
       <c r="E106" s="2" t="n"/>
       <c r="F106" s="2" t="n"/>
@@ -2280,10 +2280,10 @@
         <v>35.18333333333335</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>33.1929657477026</v>
+        <v>33.19296574770261</v>
       </c>
       <c r="D107" s="2" t="n">
-        <v>1.99036758563075</v>
+        <v>1.990367585630743</v>
       </c>
       <c r="E107" s="2" t="n"/>
       <c r="F107" s="2" t="n"/>
@@ -2297,10 +2297,10 @@
         <v>34.92476190476192</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>33.16143274853802</v>
+        <v>33.16143274853803</v>
       </c>
       <c r="D108" s="2" t="n">
-        <v>1.763329156223904</v>
+        <v>1.76332915622389</v>
       </c>
       <c r="E108" s="2" t="n"/>
       <c r="F108" s="2" t="n"/>
@@ -2311,10 +2311,10 @@
         <v>0.432</v>
       </c>
       <c r="B109" s="2" t="n">
-        <v>34.68238095238097</v>
+        <v>34.68238095238098</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>33.12989974937344</v>
+        <v>33.12989974937345</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>1.552481203007531</v>
@@ -2331,10 +2331,10 @@
         <v>34.44714285714288</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>33.09836675020886</v>
+        <v>33.09836675020887</v>
       </c>
       <c r="D110" s="2" t="n">
-        <v>1.348776106934018</v>
+        <v>1.348776106934004</v>
       </c>
       <c r="E110" s="2" t="n"/>
       <c r="F110" s="2" t="n"/>
@@ -2345,13 +2345,13 @@
         <v>0.44</v>
       </c>
       <c r="B111" s="2" t="n">
-        <v>34.22142857142859</v>
+        <v>34.2214285714286</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>33.06683375104429</v>
+        <v>33.0668337510443</v>
       </c>
       <c r="D111" s="2" t="n">
-        <v>1.154594820384304</v>
+        <v>1.154594820384297</v>
       </c>
       <c r="E111" s="2" t="n"/>
       <c r="F111" s="2" t="n"/>
@@ -2362,10 +2362,10 @@
         <v>0.444</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>34.00857142857144</v>
+        <v>34.00857142857145</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>33.03530075187971</v>
+        <v>33.03530075187972</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>0.9732706766917332</v>
@@ -2382,10 +2382,10 @@
         <v>33.82333333333335</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>33.00376775271513</v>
+        <v>33.00376775271514</v>
       </c>
       <c r="D113" s="2" t="n">
-        <v>0.8195655806182245</v>
+        <v>0.8195655806182103</v>
       </c>
       <c r="E113" s="2" t="n"/>
       <c r="F113" s="2" t="n"/>
@@ -2399,10 +2399,10 @@
         <v>33.65285714285716</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>32.97223475355055</v>
+        <v>32.97223475355056</v>
       </c>
       <c r="D114" s="2" t="n">
-        <v>0.6806223893066061</v>
+        <v>0.680622389306599</v>
       </c>
       <c r="E114" s="2" t="n"/>
       <c r="F114" s="2" t="n"/>
@@ -2419,7 +2419,7 @@
         <v>32.94070175438598</v>
       </c>
       <c r="D115" s="2" t="n">
-        <v>0.5521553884711849</v>
+        <v>0.5521553884711778</v>
       </c>
       <c r="E115" s="2" t="n"/>
       <c r="F115" s="2" t="n"/>
@@ -2433,10 +2433,10 @@
         <v>33.34523809523812</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>32.90916875522139</v>
+        <v>32.9091687552214</v>
       </c>
       <c r="D116" s="2" t="n">
-        <v>0.4360693400167222</v>
+        <v>0.436069340016715</v>
       </c>
       <c r="E116" s="2" t="n"/>
       <c r="F116" s="2" t="n"/>
@@ -2450,10 +2450,10 @@
         <v>33.2114285714286</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>32.87763575605682</v>
+        <v>32.87763575605683</v>
       </c>
       <c r="D117" s="2" t="n">
-        <v>0.3337928153717797</v>
+        <v>0.3337928153717726</v>
       </c>
       <c r="E117" s="2" t="n"/>
       <c r="F117" s="2" t="n"/>
@@ -2467,10 +2467,10 @@
         <v>33.09000000000002</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>32.84610275689224</v>
+        <v>32.84610275689225</v>
       </c>
       <c r="D118" s="2" t="n">
-        <v>0.2438972431077815</v>
+        <v>0.2438972431077673</v>
       </c>
       <c r="E118" s="2" t="n"/>
       <c r="F118" s="2" t="n"/>
@@ -2484,10 +2484,10 @@
         <v>32.98190476190479</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>32.81456975772766</v>
+        <v>32.81456975772767</v>
       </c>
       <c r="D119" s="2" t="n">
-        <v>0.1673350041771258</v>
+        <v>0.1673350041771187</v>
       </c>
       <c r="E119" s="2" t="n"/>
       <c r="F119" s="2" t="n"/>
@@ -2504,7 +2504,7 @@
         <v>32.78303675856309</v>
       </c>
       <c r="D120" s="2" t="n">
-        <v>0.1055346700083675</v>
+        <v>0.1055346700083604</v>
       </c>
       <c r="E120" s="2" t="n"/>
       <c r="F120" s="2" t="n"/>
@@ -2518,10 +2518,10 @@
         <v>32.80761904761907</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>32.7515037593985</v>
+        <v>32.75150375939852</v>
       </c>
       <c r="D121" s="2" t="n">
-        <v>0.05611528822056755</v>
+        <v>0.05611528822055334</v>
       </c>
       <c r="E121" s="2" t="n"/>
       <c r="F121" s="2" t="n"/>
@@ -2532,7 +2532,7 @@
         <v>0.484</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>32.74333333333335</v>
+        <v>32.74333333333336</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>32.71997076023393</v>
@@ -2552,10 +2552,10 @@
         <v>32.69285714285716</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>32.68843776106935</v>
+        <v>32.68843776106936</v>
       </c>
       <c r="D123" s="2" t="n">
-        <v>0.004419381787812426</v>
+        <v>0.004419381787805321</v>
       </c>
       <c r="E123" s="2" t="n"/>
       <c r="F123" s="2" t="n"/>
@@ -2566,13 +2566,13 @@
         <v>0.492</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>32.65690476190479</v>
+        <v>32.65690476190478</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>32.65690476190477</v>
+        <v>32.65690476190478</v>
       </c>
       <c r="D124" s="2" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>0</v>
       </c>
       <c r="E124" s="2" t="n"/>
       <c r="F124" s="2" t="n"/>
@@ -2600,10 +2600,10 @@
         <v>0.5</v>
       </c>
       <c r="B126" s="2" t="n">
-        <v>32.61023809523814</v>
+        <v>32.61023809523815</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>32.61023809523814</v>
+        <v>32.61023809523815</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>0.064</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>0.6433497536945936</v>
+        <v>0.6433497536945865</v>
       </c>
     </row>
     <row r="3">
@@ -2660,7 +2660,7 @@
         <v>0.196</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.2314285714285802</v>
+        <v>0.2319047619047652</v>
       </c>
     </row>
     <row r="4">
@@ -2668,7 +2668,7 @@
         <v>0.36</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>6.632030075187991</v>
+        <v>6.632030075187977</v>
       </c>
     </row>
   </sheetData>
